--- a/Documentation/ShopAware User Stories.xlsx
+++ b/Documentation/ShopAware User Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil.cerasoli\Documents\DPRA\BD Opportunities\Agile Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil.cerasoli\Documents\Agile Challenge\Total-Recall-DEV\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve">User story </t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>I can view a chart showing reports over time</t>
+  </si>
+  <si>
+    <t>As a user I want to see the Privacy Policy so that I know how the site will protect and use my information</t>
+  </si>
+  <si>
+    <t>I can view the privacy policy</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +682,17 @@
       </c>
       <c r="E16">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/ShopAware User Stories.xlsx
+++ b/Documentation/ShopAware User Stories.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t xml:space="preserve">User story </t>
   </si>
@@ -133,6 +133,31 @@
   </si>
   <si>
     <t>I can view the privacy policy</t>
+  </si>
+  <si>
+    <t>As a user I want to see a separate chart for each type of report so that I can easily tell the difference between the types</t>
+  </si>
+  <si>
+    <t>A separate chart appears for each type of report for that item</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to enter a comment about the site so that I can provide feedback for improvements</t>
+  </si>
+  <si>
+    <t>I can enter a comment about the site</t>
+  </si>
+  <si>
+    <t>As a user I want to see a legend for the icons that represent the types of events so that I understand what they mean</t>
+  </si>
+  <si>
+    <t>I can see a legend describing the meaning of the icons</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to easily clear all items from my shopping list so that I can start over from the beginning</t>
+  </si>
+  <si>
+    <t>I have a option to clear all items from my shopping list
+The shopping list is empty when the option is selected.</t>
   </si>
 </sst>
 </file>
@@ -491,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +717,50 @@
         <v>34</v>
       </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
     </row>
